--- a/biology/Botanique/Souvenir_d'Alphonse_Lavallée/Souvenir_d'Alphonse_Lavallée.xlsx
+++ b/biology/Botanique/Souvenir_d'Alphonse_Lavallée/Souvenir_d'Alphonse_Lavallée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Souvenir_d%27Alphonse_Lavall%C3%A9e</t>
+          <t>Souvenir_d'Alphonse_Lavallée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-'Souvenir d'Alphonse Lavallée' est un cultivar de rosiers hybrides remontants, obtenu en 1884 par le rosiériste français Charles Verdier (1821-1893)[1],[2]. Pierre Alphonse Martin Lavallée[3] était un passionné d'arbres et d'arbustes, fondateur en 1857 de l'arboretum du château de Segrez, à  Saint-Sulpice-de-Favières, président de la Société nationale d'horticulture de France et auteur d'une étude sur Rosa viridiflora, parue post mortem en 1886 dans L'Horticulteur français[4].
+'Souvenir d'Alphonse Lavallée' est un cultivar de rosiers hybrides remontants, obtenu en 1884 par le rosiériste français Charles Verdier (1821-1893),. Pierre Alphonse Martin Lavallée était un passionné d'arbres et d'arbustes, fondateur en 1857 de l'arboretum du château de Segrez, à  Saint-Sulpice-de-Favières, président de la Société nationale d'horticulture de France et auteur d'une étude sur Rosa viridiflora, parue post mortem en 1886 dans L'Horticulteur français.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Souvenir_d%27Alphonse_Lavall%C3%A9e</t>
+          <t>Souvenir_d'Alphonse_Lavallée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le buisson au feuillage mat de ce rosier s'élève à 80 cm et donne des fleurs doubles de 8 cm de diamètre en moyenne à l'aspect velouté et au parfum capiteux[5]. Elles sont pourpres avec des reflets violacés en fin de floraison[6]. Celle-ci se déroule en juin avec des remontées à l'automne plus légères. Ses rameaux souples sont presque inermes[7].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le buisson au feuillage mat de ce rosier s'élève à 80 cm et donne des fleurs doubles de 8 cm de diamètre en moyenne à l'aspect velouté et au parfum capiteux. Elles sont pourpres avec des reflets violacés en fin de floraison. Celle-ci se déroule en juin avec des remontées à l'automne plus légères. Ses rameaux souples sont presque inermes.
 Ce rosier ne doit pas être exposé au soleil brûlant de l'été pour conserver la couleur de ses roses. Il résiste à des températures hivernales de l'ordre de -15°. On peut notamment l'admirer à l'Europa-Rosarium de Sangerhausen en Allemagne.
 			Rose 'Souvenir d'Alphonse Lavallée' à Sangerhausen
 			Rose 'Souvenir d'Alphonse Lavallée' à Sangerhausen
